--- a/Documentação/EsboçoRequisitos.xlsx
+++ b/Documentação/EsboçoRequisitos.xlsx
@@ -5,15 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathr\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BandTec\T.I\1º Semestre\Aula - 01-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1045D09-CFC2-4BDC-88E6-EBCF089E8D36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A44814-0BDD-44FD-93A3-65C851ECC139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{DDF9AE4E-0496-4B59-AA4E-9AB86A16D6F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" tabRatio="941" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Funcionais" sheetId="2" r:id="rId2"/>
+    <sheet name="Não Funcionais" sheetId="9" r:id="rId3"/>
+    <sheet name="Tela Inicio_Inst" sheetId="3" r:id="rId4"/>
+    <sheet name="Tela Sobre Nós_Inst" sheetId="4" r:id="rId5"/>
+    <sheet name="Tela Cadastro_Inst" sheetId="5" r:id="rId6"/>
+    <sheet name="Tela Login_Inst" sheetId="6" r:id="rId7"/>
+    <sheet name="Tela Início_Funcional" sheetId="7" r:id="rId8"/>
+    <sheet name="Tela SimuladorFinanc_Inst" sheetId="8" r:id="rId9"/>
+    <sheet name="Banco de Dados" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="210">
   <si>
     <t>R01F</t>
   </si>
@@ -240,12 +249,435 @@
   </si>
   <si>
     <t>Conexão com servidor cloud para armazenamento e consulta dos dados pelo usuário.</t>
+  </si>
+  <si>
+    <t>R16F</t>
+  </si>
+  <si>
+    <t>R17F</t>
+  </si>
+  <si>
+    <t>R18F</t>
+  </si>
+  <si>
+    <t>R19F</t>
+  </si>
+  <si>
+    <t>R20F</t>
+  </si>
+  <si>
+    <t>R21F</t>
+  </si>
+  <si>
+    <t>R22F</t>
+  </si>
+  <si>
+    <t>R23F</t>
+  </si>
+  <si>
+    <t>R24F</t>
+  </si>
+  <si>
+    <t>R25F</t>
+  </si>
+  <si>
+    <t>R26F</t>
+  </si>
+  <si>
+    <t>R27F</t>
+  </si>
+  <si>
+    <t>R28F</t>
+  </si>
+  <si>
+    <t>R29F</t>
+  </si>
+  <si>
+    <t>R30F</t>
+  </si>
+  <si>
+    <t>R31F</t>
+  </si>
+  <si>
+    <t>R32F</t>
+  </si>
+  <si>
+    <t>R33F</t>
+  </si>
+  <si>
+    <t>R34F</t>
+  </si>
+  <si>
+    <t>R35F</t>
+  </si>
+  <si>
+    <t>R36F</t>
+  </si>
+  <si>
+    <t>R37F</t>
+  </si>
+  <si>
+    <t>R38F</t>
+  </si>
+  <si>
+    <t>R39F</t>
+  </si>
+  <si>
+    <t>R40F</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Sobre Nós" ao menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Cadastro" ao menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Login" ao menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o slogan do grupo abaixo do menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar uma imagem de fundo abaixo do menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar um widget de cotação de produtos agrícolas abaixo do slogan da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Criar um rodapé para o site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o logo do produto no rodapé do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar links de contato no rodapé do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Cadastro" o usuário deve ser levado à tela de cadastro.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Login" o usuário deve ser levado à tela de login.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Início" o usuário deve ser levado à tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Sobre Nós" o usuário deve ser levado à tela "Sobre Nós" do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar em algum dos links de contato no rodapé da página do site institucional, o usuário deve ser redirecionado para a rede social correspondente.</t>
+  </si>
+  <si>
+    <t>Criar a tela "Início" do site institucional.</t>
+  </si>
+  <si>
+    <t>Criar um menu horizontal que ficará na parte superior do site institucional.</t>
+  </si>
+  <si>
+    <t>Criar a tela "Sobre Nós" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar informações sobre o grupo e sobre o produto na tela "Sobre Nós" do site institucional.</t>
+  </si>
+  <si>
+    <t>Criar a tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Nome" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Sobrenome" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Email" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Telefone" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Senha" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Cidade" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "UF" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o botão "Cadastrar" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o botão "Voltar" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Voltar" da tela "Cadastro" do site institucional, o usuário deve ser redirecionado para a tela "Início".</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Cadastrar" devem ser enviados os dados do usuário para o banco de dados, realizando assim seu cadastro.</t>
+  </si>
+  <si>
+    <t>Criar a tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Email" na tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "Senha" na tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o atalho "Esqueci minha senha" na tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o botão "Entrar" na tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar o botão "Voltar" na tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Entrar" da tela "Login" do site institucional, caso seja realizado com sucesso, o usuário deve ser redirecionado para a página incial do site funcional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Entrar" da tela "Login" do site institucional, caso não seja realizado com sucesso, o usuário deve ser orientado a tentar novamente a operação.</t>
+  </si>
+  <si>
+    <t>Ao clicar no atalho "Esqueci minha senha" do site institucional, o usuário deve ser redirecionado para a página de recuperação de senha.</t>
+  </si>
+  <si>
+    <t>O campo "Senha" da tela "Login" do site institucional deve ser do tipo "password", de forma que não seja possével identificar os caracteres digitados.</t>
+  </si>
+  <si>
+    <t>O campo "Senha" da tela "Cadastro" do site institucional deve ser do tipo "password", de forma que não seja possével identificar os caracteres digitados.</t>
+  </si>
+  <si>
+    <t>R41F</t>
+  </si>
+  <si>
+    <t>R42F</t>
+  </si>
+  <si>
+    <t>R43F</t>
+  </si>
+  <si>
+    <t>R44F</t>
+  </si>
+  <si>
+    <t>R45F</t>
+  </si>
+  <si>
+    <t>R46F</t>
+  </si>
+  <si>
+    <t>R47F</t>
+  </si>
+  <si>
+    <t>Criar a tela "Início" do site funcional.</t>
+  </si>
+  <si>
+    <t>Criar um menu horizontal que ficará na parte superior do site funcional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Início" ao menu da tela "Início" do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Início" ao menu da tela "Início" do site funcional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Culturas" ao menu da tela inicial do site funcional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Institucional" ao menu da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Adicionar um botão "Sair" ao menu da tela inicial do site funcional.</t>
+  </si>
+  <si>
+    <t>Adicionar à tela "Início" do site funcional um gráfico que mostre a variação da temperatura e umidade média dos silos ao longo de determinado período de tempo.</t>
+  </si>
+  <si>
+    <t>Adiconar à tela "Início" do site funcional itens retangulares dispostos horizontalmente, dois a dois, onde irão ser colocadas as informações sobre cada silo.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item uma imagem representando o tipo de cultura armazenada naquele silo.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item um ID escolhido pelo produtor para identificar cada silo no espaço onde serão alocados.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item a data em que a cultura foi colocada naquele silo para o controle do tempo de armazenamento.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item a temperatura do ar atual naquele silo.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item a umidade relativa do ar atual naquele silo.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item a temperatura da massa de grãos atual naquele silo, em cada um dos pontos onde estão localizados os sensores.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item a umidade da massa de grãos atual naquele silo, em cada um dos pontos onde estão localizados os sensores.</t>
+  </si>
+  <si>
+    <t>Adicionar a cada item o tipo de cultura que está armazenada naquele silo.</t>
+  </si>
+  <si>
+    <t>Adicionar um item para adicionar uma nova cultura ao final da lista de itens já cadastrados.</t>
+  </si>
+  <si>
+    <t>Ao clicar em um dos itens cadastrados o usuário deve ser redirecionado para a página "Culturas", onde terá mais informações sobre cada cultura em cada silo.</t>
+  </si>
+  <si>
+    <t>Ao clicar no item para adicionar uma nova cultura o usuário deve ser redirecionado para a página "Culturas", onde realizará o cadastro da nova cultura.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Início" o usuário deve ser levado à tela inicial do site funcional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Institucional" o usuário deve ser levado à tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Sair", a sessão do usuário deve ser encerrada e o usuário deve ser redirecionado para a tela "Login" do site institucional.</t>
+  </si>
+  <si>
+    <t>Quando a temperatura</t>
+  </si>
+  <si>
+    <t>Adicionar o campo de texto "CPF" na tela "Cadastro" do site institucional.</t>
+  </si>
+  <si>
+    <t>Configurar um alarme para a situação onde a temperatura da massa de grãos está muito alta, correndo risco de auto combustão.</t>
+  </si>
+  <si>
+    <t>Configurar alarme para fungos.</t>
+  </si>
+  <si>
+    <t>Configurar alarme para ácaros.</t>
+  </si>
+  <si>
+    <t>Configurar alarme para necessidade de aeragem.</t>
+  </si>
+  <si>
+    <t>Criar o banco de dados para o projeto.</t>
+  </si>
+  <si>
+    <t>Criar uma tabela "Silo" para armazenar os dados que dizem respeito ao silo e às variáveis dentro dele.</t>
+  </si>
+  <si>
+    <t>Criar uma tabela "Produtor" para armazenar os dados que dizem respeito ao usuário.</t>
+  </si>
+  <si>
+    <t>Criar uma tabela "Cultura" para armazenar os dados que dizem respeito às culturas agrícolas que irão ser armazenadas dentro dos silos.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter o campo "idSilo", como chave primária, para identificar o silo onde os grãos estarão armazenados.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter o campo "cultura" para identificar a cultura agrícola que está armazenada dentro de determinado silo.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter o campo "dataArmazenagem" para identificar a data em que os grãos naquele silo foram armazenados.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter o campo "tempAr" para identificar a temperatura do ar entre o topo do silo e a massa de grãos.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter campos "tempGraos" para identificar a temperatura da massa de grãos em cada um dos níveis em que estão os sensores.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter o campo "umidAr" para identificar a umidade do ar entre o topo do silo e a massa de grãos.</t>
+  </si>
+  <si>
+    <t>A tabela Silo deverá conter campos "umidGraos" para identificar a umidade da massa de grãos em cada um dos níveis em que estão os sensores.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter o campo "cpfProdutor", como chave primária, para identificar o usuário cadastrado.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter o campo "nomeProdutor" para identificar o nome do usuário.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter o campo "telefoneProdutor" para identificar o telefone do usuário, em prol de enventuais contatos.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter o campo "emailProdutor" para identificar o email do usuário, em prol de eventuais contatos.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter o campo "senhaProdutor" para garantir restrição do acesso aos dados do usuário.</t>
+  </si>
+  <si>
+    <t>A tabela Produtor deverá conter os campos "cepProdutor","cidadeProdutor","ufProdutor" para identificar a localidade da propriedade que utilizará nosso sistema.</t>
+  </si>
+  <si>
+    <t>A tabela Cultura deverá conter o campo "idCultura", como chave primária, para identificar a cultura agrícola em questão.</t>
+  </si>
+  <si>
+    <t>A tabela Cultura deverá conter o campo "nomeCultura" para identificar o nome da cultura agrícola em questão.</t>
+  </si>
+  <si>
+    <t>A tabela Cultura deverá conter o campo "tempIdeal" para identificar a temperatura ideal em que devem permanecer os grãos daquele tipo durante a armazenagem.</t>
+  </si>
+  <si>
+    <t>A tabela Cultura deverá conter o campo "umidIdeal" para identificar a umidade ideal em que devem permanecer os grãos daquele tipo deurante a armazenagem.</t>
+  </si>
+  <si>
+    <t>Adicionar à tela "Simulador Financeiro" dois botões que permitem o usuário escolher se realiza o armazenamento em sua propriedade ou se realiza essa tarefa através de terceiros.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Através de terceiros", deverão ser exibidos campos pertinentes à armazenagem realizada em propriedade.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Em propriedade", deverão ser exibidos campos pertinentes à armazenagem realizada em propriedade.</t>
+  </si>
+  <si>
+    <t>Adicionar à parte "Em propriedade" um botão "Calcular".</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Calcular", deve ser calculado o quanto o produtor lucra atualmente, quanto lucraria com nossa solução e a diferença entre os dois valores.</t>
+  </si>
+  <si>
+    <t>Deverão ser os campos pertinentes à armazenagem em propriedade: "Média do preço pelo qual vende cada saca de grãos","Média da quantidade de sacas que vende por safra", "A média, em porcentagem, da perda que tem em cada safra", "Gastos mensais com mão de obra".</t>
+  </si>
+  <si>
+    <t>Deverão ser os campos pertinentes à armazenagem através de terceiros: "Média da quantidade de sacas que produz por safra","Média do valor do frete que paga para terceiros realizarem sua armazenagem","Gastos mensais com mão de obra".</t>
+  </si>
+  <si>
+    <t>Adicionar à parte "Através de terceiros" um botão "Calcular".</t>
+  </si>
+  <si>
+    <t>Criar a tela "Simulador Financeiro"</t>
+  </si>
+  <si>
+    <t>Adicionar uma seção "Proposta de Valor" do nosso produto abaixo do widget de cotação de produtos agrícolas da tela inicial do site institucional.</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão "Culturas" o usuário deve ser levado à tela "Culturas" do site funcional.</t>
+  </si>
+  <si>
+    <t>O dispositivo deve possuir um navegador que suporte Javascript, HTML e CSS.</t>
+  </si>
+  <si>
+    <t>Deve haver conexão com a internet para ser possível o acesso aos dados.</t>
+  </si>
+  <si>
+    <t>Deve haver conexão com um servidor em Cloud para armazenamento e consulta de dados pelo usuário.</t>
+  </si>
+  <si>
+    <t>O tempo de retorno dos dados deve ser de no máximo 5 segundos.</t>
+  </si>
+  <si>
+    <t>Deverá ser fornecida energia ao Arduino a todo momento.</t>
+  </si>
+  <si>
+    <t>As informações de cada usuário devem ter seu acesso restrito aos mesmos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\R##\F"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +795,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,22 +1117,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89600C-F0BE-4D62-AEA2-C3499F0CE73E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="102.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -706,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -720,7 +1160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -734,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -748,7 +1188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -762,7 +1202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -776,7 +1216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -790,7 +1230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -804,7 +1244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -818,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -832,7 +1272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -846,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -860,7 +1300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -874,7 +1314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -888,7 +1328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -902,7 +1342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -916,7 +1356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -930,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -944,7 +1384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -958,7 +1398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1420,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1428,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -996,7 +1436,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1444,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1452,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1024,4 +1464,2628 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649FA092-937A-4251-B3B6-0058B91129C8}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="167.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()+84&amp;"F"</f>
+        <v>R86F</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="str">
+        <f t="shared" ref="A3:A22" si="0" xml:space="preserve"> "R"&amp;ROW()+84&amp;"F"</f>
+        <v>R87F</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R88F</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R89F</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R90F</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R91F</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R92F</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R93F</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R94F</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R95F</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R96F</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R97F</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R98F</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R99F</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R100F</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R101F</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R102F</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R103F</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R104F</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R105F</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R106F</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R48F</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="str">
+        <f t="shared" ref="A50:A110" si="0" xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R49F</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R50F</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"NF"</f>
+        <v>R51NF</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R52F</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R53F</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R54F</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R55F</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R56F</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R57F</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R58F</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R59F</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R60F</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R61F</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R62F</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R63F</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R64F</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R65F</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R66F</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R67F</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R68F</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R69F</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R70F</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R71F</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R72F</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R73F</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R74F</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R75F</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R76F</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R77F</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="12"/>
+    </row>
+    <row r="79" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R78F</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R79F</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="12"/>
+    </row>
+    <row r="81" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R80F</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="12"/>
+    </row>
+    <row r="82" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R81F</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="12"/>
+    </row>
+    <row r="83" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R82F</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R83F</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R84F</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R85F</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R86F</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R87F</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R88F</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R89F</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R90F</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R91F</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R92F</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R93F</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R94F</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R95F</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R96F</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R97F</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R98F</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R99F</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R100F</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R101F</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R102F</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R103F</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R104F</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R105F</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R106F</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"NF"</f>
+        <v>R1NF</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="str">
+        <f t="shared" ref="A3:A50" si="0" xml:space="preserve"> "R"&amp;ROW()-1&amp;"NF"</f>
+        <v>R2NF</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R3NF</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R4NF</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R5NF</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R6NF</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R7NF</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R8NF</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R9NF</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R10NF</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R11NF</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R12NF</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R13NF</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R14NF</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R15NF</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R16NF</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R17NF</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R18NF</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R19NF</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R20NF</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R21NF</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R22NF</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R23NF</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R24NF</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R25NF</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R26NF</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R27NF</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R28NF</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R29NF</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R30NF</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R31NF</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R32NF</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R33NF</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R34NF</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R35NF</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R36NF</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R37NF</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R38NF</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R39NF</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R40NF</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R41NF</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R42NF</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R43NF</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R44NF</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R45NF</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R46NF</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R47NF</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R48NF</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R49NF</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"NF"</f>
+        <v>R50NF</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()+43&amp;"F"</f>
+        <v>R48F</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="str">
+        <f t="shared" ref="A6:A32" si="0" xml:space="preserve"> "R"&amp;ROW()+43&amp;"F"</f>
+        <v>R49F</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R50F</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R51F</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R52F</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R53F</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R54F</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R55F</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R56F</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R57F</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R58F</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R59F</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R60F</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R61F</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R62F</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R63F</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R64F</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R65F</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R66F</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R67F</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R68F</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R69F</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R70F</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R71F</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R72F</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R73F</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R74F</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R75F</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f t="shared" ref="A2:A11" si="0" xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R1F</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R2F</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R3F</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R4F</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R5F</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="str">
+        <f xml:space="preserve"> "R"&amp;ROW()-1&amp;"F"</f>
+        <v>R6F</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R7F</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R8F</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R9F</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>R10F</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>